--- a/dia2/Ejemplo relaciones tablas.xlsx
+++ b/dia2/Ejemplo relaciones tablas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Documents\Cursos Cauhdi\Curso MSSQL\dia2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8572A2F6-2448-4AA9-93B9-178922EC2660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CF6CE5-577B-4F3B-A698-EB034C290CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{91F50ACD-D6A1-4ECF-86B7-5C7D6D81DBA9}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="85">
   <si>
     <t>id_alumno</t>
   </si>
@@ -60,18 +60,12 @@
     <t>id_calificacion</t>
   </si>
   <si>
-    <t>materia</t>
-  </si>
-  <si>
     <t>calificacion_p1</t>
   </si>
   <si>
     <t>calificacion_p2</t>
   </si>
   <si>
-    <t>semestre</t>
-  </si>
-  <si>
     <t>abc123</t>
   </si>
   <si>
@@ -237,9 +231,6 @@
     <t>Datos_Escuela OK</t>
   </si>
   <si>
-    <t>Inscripciones</t>
-  </si>
-  <si>
     <t>LIC EN PEDAGOGIA</t>
   </si>
   <si>
@@ -274,6 +265,33 @@
   </si>
   <si>
     <t>ING EN SISTMAS</t>
+  </si>
+  <si>
+    <t>id_inscripcion</t>
+  </si>
+  <si>
+    <t>id_lic</t>
+  </si>
+  <si>
+    <t>fecha_inscripcion</t>
+  </si>
+  <si>
+    <t>promedio</t>
+  </si>
+  <si>
+    <t>fecha_fin</t>
+  </si>
+  <si>
+    <t>Inscripciones/trayectoria alumno</t>
+  </si>
+  <si>
+    <t>id_grupo</t>
+  </si>
+  <si>
+    <t>Grupos</t>
+  </si>
+  <si>
+    <t>id_carreras</t>
   </si>
 </sst>
 </file>
@@ -350,7 +368,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -419,11 +437,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -432,6 +461,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -453,13 +486,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -774,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51130F18-B510-41EA-BB0F-DB7D97D3F8A9}">
-  <dimension ref="A1:R44"/>
+  <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23:M32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,27 +819,28 @@
     <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.28515625" customWidth="1"/>
     <col min="13" max="14" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" customWidth="1"/>
     <col min="23" max="23" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="I1" s="11" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="I1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -830,19 +863,19 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -857,7 +890,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
@@ -866,24 +899,24 @@
         <v>10</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="I4" s="4">
         <v>2</v>
@@ -892,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L4" s="1">
         <v>1</v>
@@ -904,21 +937,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="5"/>
@@ -927,33 +960,41 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="J6" s="5">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2</v>
+      </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="5"/>
+      <c r="J7" s="5">
+        <v>1</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -969,7 +1010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -981,13 +1022,17 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="P9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="10"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="14"/>
+      <c r="T9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1000,14 +1045,20 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="P10" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R10" s="2"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1023,11 +1074,13 @@
         <v>1</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R11" s="1"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1043,11 +1096,13 @@
         <v>2</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R12" s="1"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I13" s="4"/>
       <c r="J13" s="5"/>
       <c r="K13" s="1"/>
@@ -1058,11 +1113,13 @@
         <v>3</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="R13" s="1"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
       <c r="K14" s="1"/>
@@ -1072,15 +1129,17 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
       <c r="I15" s="4"/>
       <c r="J15" s="5"/>
       <c r="K15" s="1"/>
@@ -1090,8 +1149,10 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1106,8 +1167,10 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1122,12 +1185,14 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="13"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="17"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1140,8 +1205,10 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1156,14 +1223,16 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="13"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="17"/>
       <c r="C20" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1174,7 +1243,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1184,7 +1253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1194,66 +1263,68 @@
         <v>3</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="I23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J23" s="15"/>
+        <v>22</v>
+      </c>
+      <c r="J23" s="8"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="P23" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="I24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J24" s="17" t="s">
+      <c r="L24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="2"/>
+      <c r="M24" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="P24" s="1">
         <v>1</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R24" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1262,27 +1333,27 @@
       <c r="I25" s="1">
         <v>1</v>
       </c>
-      <c r="J25" s="16">
+      <c r="J25" s="9">
         <v>1</v>
       </c>
       <c r="K25" s="1">
         <v>1</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M25" s="1"/>
       <c r="P25" s="1">
         <v>2</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="R25" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1291,27 +1362,27 @@
       <c r="I26" s="1">
         <v>2</v>
       </c>
-      <c r="J26" s="16">
+      <c r="J26" s="9">
         <v>1</v>
       </c>
       <c r="K26" s="1">
         <v>1</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M26" s="1"/>
       <c r="P26" s="1">
         <v>3</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I27" s="1"/>
-      <c r="J27" s="16"/>
+      <c r="J27" s="9"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -1319,23 +1390,23 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I28" s="1"/>
-      <c r="J28" s="16"/>
+      <c r="J28" s="9"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R28" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I29" s="1"/>
-      <c r="J29" s="16"/>
+      <c r="J29" s="9"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -1343,9 +1414,9 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I30" s="1"/>
-      <c r="J30" s="16"/>
+      <c r="J30" s="9"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -1353,9 +1424,9 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I31" s="1"/>
-      <c r="J31" s="16"/>
+      <c r="J31" s="9"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -1363,9 +1434,9 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I32" s="1"/>
-      <c r="J32" s="16"/>
+      <c r="J32" s="9"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -1373,63 +1444,112 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
     </row>
-    <row r="36" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G36" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="L36" s="1" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
-    </row>
-    <row r="37" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="Q36" s="1"/>
+    </row>
+    <row r="37" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G37" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J37" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-    </row>
-    <row r="38" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="L37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q37" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="R37" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-    </row>
-    <row r="39" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="L38" s="1">
+        <v>1</v>
+      </c>
+      <c r="M38" s="1">
+        <v>1</v>
+      </c>
+      <c r="N38" s="1">
+        <v>2</v>
+      </c>
+      <c r="O38" s="20">
+        <v>44786</v>
+      </c>
+      <c r="P38" s="20">
+        <v>44960</v>
+      </c>
+      <c r="Q38" s="22">
+        <v>1</v>
+      </c>
+      <c r="R38" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-    </row>
-    <row r="40" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="L39" s="1">
+        <v>2</v>
+      </c>
+      <c r="M39" s="1">
+        <v>1</v>
+      </c>
+      <c r="N39" s="1">
+        <v>2</v>
+      </c>
+      <c r="O39" s="20">
+        <v>44970</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q39" s="22">
+        <v>2</v>
+      </c>
+      <c r="R39" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -1439,8 +1559,9 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
-    </row>
-    <row r="41" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="Q40" s="1"/>
+    </row>
+    <row r="41" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -1450,8 +1571,9 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
-    </row>
-    <row r="42" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="Q41" s="1"/>
+    </row>
+    <row r="42" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -1461,8 +1583,9 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
-    </row>
-    <row r="43" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="Q42" s="1"/>
+    </row>
+    <row r="43" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -1472,8 +1595,9 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
-    </row>
-    <row r="44" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="Q43" s="1"/>
+    </row>
+    <row r="44" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -1483,6 +1607,7 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1513,22 +1638,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="A1" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>67</v>
+      <c r="A2" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1536,34 +1661,34 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1571,27 +1696,27 @@
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1599,34 +1724,34 @@
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C15" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>78</v>
+      <c r="A17" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1634,34 +1759,34 @@
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1669,27 +1794,27 @@
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1697,21 +1822,21 @@
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C30" s="1"/>
     </row>
@@ -1742,62 +1867,62 @@
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N4">
         <v>2</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1805,10 +1930,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1826,13 +1951,13 @@
         <v>44767</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N5">
         <v>3</v>
       </c>
       <c r="O5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1855,13 +1980,13 @@
         <v>44767</v>
       </c>
       <c r="K6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N6">
         <v>8</v>
       </c>
       <c r="O6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1869,7 +1994,7 @@
         <v>9</v>
       </c>
       <c r="O7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
